--- a/Unit Doc/ontrack_1.1p/1.1P-resources/1.1P-Worklog_Template.xlsx
+++ b/Unit Doc/ontrack_1.1p/1.1P-resources/1.1P-Worklog_Template.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyoscar/Desktop/SIT723 - Research Project A/Week1/ontrack_1.1p/1.1P-resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyoscar/Desktop/SIT723 - Research Project A/Unit Doc/ontrack_1.1p/1.1P-resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62380E8-53FE-C941-8696-877EC45BFAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247BFA1E-3DC5-CA49-B207-AA4F482C735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="15100" windowWidth="27700" windowHeight="17500" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="20220" yWindow="6500" windowWidth="27700" windowHeight="16100" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="worklogs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>Student Name</t>
   </si>
@@ -120,6 +119,70 @@
   </si>
   <si>
     <t>Completed quiz and Project Initiation document</t>
+  </si>
+  <si>
+    <t>look at what has been done and use that information to
+design new research relate to our project</t>
+  </si>
+  <si>
+    <t>Week1 Workshop</t>
+  </si>
+  <si>
+    <t>Total hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project initiation and set up working environment, such as latex, git </t>
+  </si>
+  <si>
+    <t>Week 2 Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part I: prepare literature review and search existing study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part II: prepare literature review and search existing study </t>
+  </si>
+  <si>
+    <t>Part I: week 1 content and learning resource</t>
+  </si>
+  <si>
+    <t>Part II:week 1 content and learning resource</t>
+  </si>
+  <si>
+    <t>ontack 1.1, 2.1,2.2</t>
+  </si>
+  <si>
+    <t>Updated project and paper manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part I: Studying prior knowledge within scope of my project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part II: Studying prior knowledge within scope of my project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part III: Studying prior knowledge within scope of my project </t>
+  </si>
+  <si>
+    <t>Collecting Bias Datasets I</t>
+  </si>
+  <si>
+    <t>Collecting Bias Datasets  II</t>
+  </si>
+  <si>
+    <t>Upskilling for latex and python</t>
+  </si>
+  <si>
+    <t>Upskilling for notion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upskilling for Linear Algbra </t>
+  </si>
+  <si>
+    <t>Upskilling for NLP</t>
+  </si>
+  <si>
+    <t>Upskilling for NLP II</t>
   </si>
 </sst>
 </file>
@@ -127,9 +190,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,8 +215,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +243,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -199,7 +276,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,11 +612,11 @@
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="68.83203125" customWidth="1"/>
+    <col min="7" max="7" width="78.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +640,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -584,7 +663,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44357</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44357</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -592,56 +711,423 @@
         <v>24</v>
       </c>
       <c r="D5" s="4">
+        <v>44359</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44389</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4">
         <v>44390</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4">
         <v>44393</v>
       </c>
-      <c r="E6">
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <f>SUM(E5:F671)/60</f>
+        <v>40.333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44394</v>
+      </c>
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44394</v>
-      </c>
-      <c r="E7">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44396</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44396</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
+      <c r="G21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44397</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -653,13 +1139,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E432</xm:sqref>
+          <xm:sqref>E6:E20 E34:E436</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F1048576</xm:sqref>
+          <xm:sqref>F3:F20 F34:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -668,18 +1154,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1059B8B0-1CAC-584C-89CA-14E168A35811}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33773F99-62A8-8448-A88C-B95AA7EFF6F1}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -926,18 +1400,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,18 +1433,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Unit Doc/ontrack_1.1p/1.1P-resources/1.1P-Worklog_Template.xlsx
+++ b/Unit Doc/ontrack_1.1p/1.1P-resources/1.1P-Worklog_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyoscar/Desktop/SIT723 - Research Project A/Unit Doc/ontrack_1.1p/1.1P-resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247BFA1E-3DC5-CA49-B207-AA4F482C735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F3060-E6BD-B94D-B01E-776901A9C161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="6500" windowWidth="27700" windowHeight="16100" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="6780" yWindow="3940" windowWidth="27700" windowHeight="16100" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="worklogs" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
